--- a/GSENSE2020BSI/РАСПИНОВКА.xlsx
+++ b/GSENSE2020BSI/РАСПИНОВКА.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A071FA-FE67-4B21-9D4D-858BDC8F7254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9540"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +301,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,70 +391,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -453,6 +438,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -471,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,9 +510,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,7 +547,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,21 +755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
@@ -778,955 +777,619 @@
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E1" s="15"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="I2" s="25" t="s">
+      <c r="F2" s="2"/>
+      <c r="I2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="7">
+      <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="I4" s="7">
+      <c r="F4" s="18">
         <v>1</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="I5" s="8">
+      <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="20">
+      <c r="J5" s="21"/>
+      <c r="K5" s="6">
         <v>2</v>
       </c>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="22"/>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="18">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F7" s="18">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F8" s="18">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="18">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="18">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="18">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="18">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="18">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="18">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="18">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F17" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="18">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F18" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="18">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F19" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="18">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F20" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="18">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F21" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="18">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="18">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="18">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="18">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="18">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E27" s="20"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="18">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F28" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="18">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F29" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
